--- a/QueriesExcel/9.xlsx
+++ b/QueriesExcel/9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706650FC-FE30-4B97-A376-1C500D53E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA2DB36-B237-4745-AD03-DE2EC7FEA533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F24FD06-F2B2-45F5-A88D-E7A805DAFC2D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="94" r:id="rId2"/>
+    <pivotCache cacheId="57" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -707,115 +707,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
@@ -842,7 +734,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45663.982402199072" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{50714FD8-4A5C-4817-AF79-1479999AFE04}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.031239814816" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{50714FD8-4A5C-4817-AF79-1479999AFE04}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="9">
     <cacheField name="[Measures].[Freight UK]" caption="Freight UK" numFmtId="0" hierarchy="161" level="32767"/>
@@ -1007,14 +899,14 @@
     <cacheHierarchy uniqueName="[Order Date].[Quarter]" caption="Order Date.Quarter" attribute="1" defaultMemberUniqueName="[Order Date].[Quarter].[All]" allUniqueName="[Order Date].[Quarter].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Quarter Name]" caption="Order Date.Quarter Name" attribute="1" defaultMemberUniqueName="[Order Date].[Quarter Name].[All]" allUniqueName="[Order Date].[Quarter Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Season]" caption="Order Date.Season" attribute="1" defaultMemberUniqueName="[Order Date].[Season].[All]" allUniqueName="[Order Date].[Season].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Semester]" caption="Order Date.Semester" attribute="1" defaultMemberUniqueName="[Order Date].[Semester].[All]" allUniqueName="[Order Date].[Semester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Semester]" caption="Order Date.Semester" attribute="1" defaultMemberUniqueName="[Order Date].[Semester].[All]" allUniqueName="[Order Date].[Semester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Semester Name]" caption="Order Date.Semester Name" attribute="1" defaultMemberUniqueName="[Order Date].[Semester Name].[All]" allUniqueName="[Order Date].[Semester Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="7"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Order Date].[Trimester]" caption="Order Date.Trimester" attribute="1" defaultMemberUniqueName="[Order Date].[Trimester].[All]" allUniqueName="[Order Date].[Trimester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Trimester]" caption="Order Date.Trimester" attribute="1" defaultMemberUniqueName="[Order Date].[Trimester].[All]" allUniqueName="[Order Date].[Trimester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Trimester Name]" caption="Order Date.Trimester Name" attribute="1" defaultMemberUniqueName="[Order Date].[Trimester Name].[All]" allUniqueName="[Order Date].[Trimester Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1142,7 +1034,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B99154FD-0099-4889-8D5D-294A94CCC496}" name="PivotTable1" cacheId="94" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B99154FD-0099-4889-8D5D-294A94CCC496}" name="PivotTable1" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A5:C55" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1366,7 +1258,7 @@
     <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="39">
+    <format dxfId="3">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1375,7 +1267,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="2">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1970,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>95.266600000000011</v>
       </c>
       <c r="C9" s="2">
         <v>119.08319999999998</v>
@@ -1981,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>69.887599999999992</v>
       </c>
       <c r="C10" s="2">
         <v>87.3596</v>
@@ -1992,7 +1884,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>599.74260000000004</v>
       </c>
       <c r="C11" s="2">
         <v>749.67820000000006</v>
@@ -2010,7 +1902,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>381.6352</v>
       </c>
       <c r="C13" s="2">
         <v>477.04410000000007</v>
@@ -2021,7 +1913,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>17.428599999999999</v>
       </c>
       <c r="C14" s="2">
         <v>21.785300000000007</v>
@@ -2032,7 +1924,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>42.620000000000005</v>
       </c>
       <c r="C15" s="2">
         <v>53.275000000000006</v>
@@ -2057,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>29.344000000000001</v>
       </c>
       <c r="C18" s="2">
         <v>36.68</v>
@@ -2068,7 +1960,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>15.808</v>
       </c>
       <c r="C19" s="2">
         <v>19.760000000000002</v>
@@ -2079,7 +1971,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>15.224</v>
       </c>
       <c r="C20" s="2">
         <v>19.03</v>
@@ -2111,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>16.650600000000001</v>
       </c>
       <c r="C24" s="2">
         <v>20.813199999999998</v>
@@ -2122,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>92.826599999999999</v>
       </c>
       <c r="C25" s="2">
         <v>116.03319999999999</v>
@@ -2133,7 +2025,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>357.72989999999999</v>
       </c>
       <c r="C26" s="2">
         <v>447.16230000000007</v>
@@ -2151,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>118.12130000000002</v>
       </c>
       <c r="C28" s="2">
         <v>147.6516</v>
@@ -2176,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>53.930599999999998</v>
       </c>
       <c r="C31" s="2">
         <v>67.413300000000007</v>
@@ -2194,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="C33" s="2">
         <v>0.53</v>
@@ -2226,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>94.501300000000001</v>
       </c>
       <c r="C37" s="2">
         <v>118.12659999999998</v>
@@ -2237,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>62.552</v>
       </c>
       <c r="C38" s="2">
         <v>78.19</v>
@@ -2248,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="1">
-        <v>0</v>
+        <v>73.045299999999997</v>
       </c>
       <c r="C39" s="2">
         <v>91.306600000000003</v>
@@ -2266,7 +2158,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>34.451999999999998</v>
       </c>
       <c r="C41" s="2">
         <v>43.065000000000005</v>
@@ -2291,7 +2183,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>75.963999999999999</v>
       </c>
       <c r="C44" s="2">
         <v>94.954999999999998</v>
@@ -2323,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>7.3520000000000003</v>
       </c>
       <c r="C48" s="2">
         <v>9.19</v>
@@ -2334,7 +2226,7 @@
         <v>15</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>3.984</v>
       </c>
       <c r="C49" s="2">
         <v>4.9800000000000004</v>
@@ -2352,7 +2244,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>138.56560000000002</v>
       </c>
       <c r="C51" s="2">
         <v>173.20700000000002</v>
@@ -2377,7 +2269,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>17.495999999999999</v>
       </c>
       <c r="C54" s="2">
         <v>21.87</v>
@@ -2388,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>2414.5518000000002</v>
       </c>
       <c r="C55" s="2">
         <v>3018.1892000000007</v>
